--- a/Problems 1.xlsx
+++ b/Problems 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Desktop\GitHub\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="219">
   <si>
     <t>}</t>
   </si>
@@ -590,9 +590,6 @@
     <t>Задание 4</t>
   </si>
   <si>
-    <t>РАЗБИРАТЬСЯ</t>
-  </si>
-  <si>
     <t>Задание 5</t>
   </si>
   <si>
@@ -635,12 +632,6 @@
     <t>IF ANIMATOR.SEASON = "W'</t>
   </si>
   <si>
-    <t>THEN ANIMATOR.ANIMATE</t>
-  </si>
-  <si>
-    <t>ничего не понял</t>
-  </si>
-  <si>
     <t>Задание 16</t>
   </si>
   <si>
@@ -674,9 +665,6 @@
     <t>Задание 19</t>
   </si>
   <si>
-    <t>HOTEL, SEASON</t>
-  </si>
-  <si>
     <t>R1 times R2</t>
   </si>
   <si>
@@ -684,6 +672,15 @@
   </si>
   <si>
     <t>Задание 7</t>
+  </si>
+  <si>
+    <t>R1 DIVIDE BY R2 = НИЧТО</t>
+  </si>
+  <si>
+    <t>THEN ANIMATOR.PAYMENT</t>
+  </si>
+  <si>
+    <t>HOTEL, SEASON, ANIMATE</t>
   </si>
 </sst>
 </file>
@@ -788,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -828,6 +825,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -893,39 +891,32 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>96630</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>299094</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>69022</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>256444</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="14025" t="10148" r="13480" b="14356"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15419456" y="35532391"/>
-          <a:ext cx="5158225" cy="2871305"/>
+          <a:off x="15452481" y="36085097"/>
+          <a:ext cx="2688982" cy="2234711"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AX206"/>
+  <dimension ref="A2:BB206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="U148" sqref="U148"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O200" sqref="O200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1879,7 +1870,7 @@
     </row>
     <row r="37" spans="1:29">
       <c r="Z37" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -1887,7 +1878,7 @@
         <v>187</v>
       </c>
       <c r="T38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="V38" s="7" t="s">
         <v>97</v>
@@ -1988,9 +1979,7 @@
       <c r="AA41" s="7">
         <v>1</v>
       </c>
-      <c r="AC41" s="21" t="s">
-        <v>188</v>
-      </c>
+      <c r="AC41" s="21"/>
     </row>
     <row r="42" spans="1:29">
       <c r="H42" s="7" t="s">
@@ -2114,7 +2103,7 @@
         <v>27</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>20</v>
@@ -2217,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="N57" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="P57" s="7">
-        <v>12</v>
+        <v>189</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -2233,9 +2222,7 @@
       <c r="K58" s="7">
         <v>3</v>
       </c>
-      <c r="P58" s="7">
-        <v>56</v>
-      </c>
+      <c r="P58" s="15"/>
     </row>
     <row r="59" spans="1:29">
       <c r="F59" t="s">
@@ -2256,9 +2243,7 @@
       <c r="K59" s="7">
         <v>87</v>
       </c>
-      <c r="P59" s="7">
-        <v>5</v>
-      </c>
+      <c r="P59" s="15"/>
     </row>
     <row r="60" spans="1:29">
       <c r="H60" s="7">
@@ -2270,6 +2255,7 @@
       <c r="K60" s="7">
         <v>90</v>
       </c>
+      <c r="P60" s="15"/>
     </row>
     <row r="61" spans="1:29">
       <c r="H61" s="7">
@@ -2307,7 +2293,7 @@
         <v>119</v>
       </c>
       <c r="V64" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2601,7 +2587,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="H92" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>54</v>
@@ -2661,7 +2647,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="B95" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -3419,7 +3405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:50">
+    <row r="146" spans="1:54">
       <c r="H146" s="11" t="s">
         <v>146</v>
       </c>
@@ -3427,7 +3413,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="147" spans="1:50">
+    <row r="147" spans="1:54">
       <c r="H147" s="7" t="s">
         <v>147</v>
       </c>
@@ -3435,7 +3421,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="148" spans="1:50">
+    <row r="148" spans="1:54">
       <c r="F148" t="s">
         <v>59</v>
       </c>
@@ -3446,13 +3432,13 @@
         <v>148</v>
       </c>
       <c r="L148" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N148" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:50">
+    <row r="149" spans="1:54">
       <c r="H149" s="7" t="s">
         <v>149</v>
       </c>
@@ -3460,7 +3446,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="151" spans="1:50">
+    <row r="151" spans="1:54">
       <c r="A151">
         <v>12</v>
       </c>
@@ -3468,7 +3454,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:50">
+    <row r="152" spans="1:54">
       <c r="H152" s="11" t="s">
         <v>154</v>
       </c>
@@ -3497,7 +3483,7 @@
         <v>73</v>
       </c>
       <c r="W152" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y152" t="s">
         <v>31</v>
@@ -3559,8 +3545,20 @@
       <c r="AX152" s="13" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:50">
+      <c r="AY152" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ152" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA152" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB152" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:54">
       <c r="H153" s="7" t="s">
         <v>61</v>
       </c>
@@ -3639,8 +3637,20 @@
       <c r="AX153" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:50">
+      <c r="AY153" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ153" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA153" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB153" s="17">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="154" spans="1:54">
       <c r="F154" t="s">
         <v>22</v>
       </c>
@@ -3725,8 +3735,20 @@
       <c r="AX154" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:50">
+      <c r="AY154" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ154" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA154" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB154" s="17">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="155" spans="1:54">
       <c r="H155" s="7" t="s">
         <v>62</v>
       </c>
@@ -3793,8 +3815,20 @@
       <c r="AX155" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:50">
+      <c r="AY155" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ155" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA155" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB155" s="17">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="156" spans="1:54">
       <c r="H156" s="7" t="s">
         <v>63</v>
       </c>
@@ -3861,8 +3895,20 @@
       <c r="AX156" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:50">
+      <c r="AY156" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ156" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA156" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB156" s="17">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="157" spans="1:54">
       <c r="H157" s="7" t="s">
         <v>64</v>
       </c>
@@ -3933,7 +3979,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:50">
+    <row r="158" spans="1:54">
       <c r="H158" s="7" t="s">
         <v>151</v>
       </c>
@@ -4007,7 +4053,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:50">
+    <row r="159" spans="1:54">
       <c r="H159" s="7" t="s">
         <v>66</v>
       </c>
@@ -4054,7 +4100,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:50">
+    <row r="160" spans="1:54">
       <c r="H160" s="7" t="s">
         <v>67</v>
       </c>
@@ -4246,19 +4292,19 @@
         <v>80</v>
       </c>
       <c r="S169" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="U169" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="U169" s="11" t="s">
+      <c r="V169" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="V169" s="11" t="s">
+      <c r="W169" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="W169" s="11" t="s">
+      <c r="X169" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="X169" s="11" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="170" spans="1:46">
@@ -4360,7 +4406,7 @@
         <v>85</v>
       </c>
       <c r="S179" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U179" s="11" t="s">
         <v>154</v>
@@ -4372,10 +4418,7 @@
         <v>150</v>
       </c>
       <c r="Y179" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB179" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -4392,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="Y180" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -4407,13 +4450,13 @@
     </row>
     <row r="183" spans="1:28">
       <c r="S183" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U183" t="s">
+        <v>203</v>
+      </c>
+      <c r="V183" t="s">
         <v>206</v>
-      </c>
-      <c r="V183" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -4421,18 +4464,18 @@
         <v>164</v>
       </c>
       <c r="U184" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="V184" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:28">
       <c r="U185" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="V185" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -4451,10 +4494,10 @@
         <v>87</v>
       </c>
       <c r="S188" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="U188" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -4465,7 +4508,7 @@
         <v>88</v>
       </c>
       <c r="AB190" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -4476,10 +4519,10 @@
         <v>89</v>
       </c>
       <c r="S192" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U192" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -4492,7 +4535,7 @@
     </row>
     <row r="195" spans="1:29">
       <c r="M195" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O195" s="11" t="s">
         <v>154</v>
@@ -4532,7 +4575,7 @@
       <c r="S196" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="T196" s="13" t="s">
+      <c r="T196" s="29" t="s">
         <v>56</v>
       </c>
       <c r="U196" s="25" t="s">
